--- a/news_titles_urls/article content cc/kejahatan content.xlsx
+++ b/news_titles_urls/article content cc/kejahatan content.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="5295"/>
+    <workbookView windowWidth="19815" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>Angka penipuan online kian meningkat. Modus penipuan online pun semakin beragam. Masyarakat perlu memahami bagaimana oknum-oknum ini melancarkan misinya. Berdasarkan data yang kami rangkum dari berbagai seumber, setidaknya ada 5 jenis penipuan online yang marak di Indonesia.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>Judul Berita</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Studi Buktikan Kepemilikan Anjing Bisa Turunkan Tingkat Kejahatan</t>
   </si>
   <si>
     <t>Kepemilikan anjing dalam satu lingkungan ternyata bisa mengurangi tingkat kejahatan di lingkungan tersebut. Hal itu diungkap dalam penelitian dari Ohio State University and the University of Texas di Austin berjudul Paws on the Street: Neighborhood-Level Concentration of Households with Dogs and Urban Crime. 
@@ -38,10 +41,19 @@
 [Gambas:Video CNN]</t>
   </si>
   <si>
+    <t>VIDEO: Pasutri Terlibat Kejahatan</t>
+  </si>
+  <si>
     <t>Pasangan suami istri seharusnya saling membantu berbuat kebaikan.Tapi tidak dengan dua pasutri di Jombang Dan Mojokerto Jawa Timur, yang justru terlibat kejahatan.Apa saja aksi kejahatan mereka? Kita simak liputannya.</t>
   </si>
   <si>
+    <t>VIDEO: Karyawati Tewas Dibacok Pemotor</t>
+  </si>
+  <si>
     <t>Seorang karyawati pabrik di Bekasi, Jawa Barat, ditemukan tewas dengan luka bacok pada punggung. Wanita bernama iska nurohmah ini menjadi korban pembunuhan yang dilakukan oleh pengendara motor . Sementara itu seorang karyawan mencuri sepeda motor majikannya sendiri., pelaku juga membawa kabur kotak amal.</t>
+  </si>
+  <si>
+    <t>Marak Gangster, Kapolda Metro Bakal Datangi Lokasi Rawan Kejahatan</t>
   </si>
   <si>
     <t>Kapolda Metro Jaya Irjen Fadil Imran mengklaim akan mendatangi lokasi rawan aksi kejahatan atau kriminal di wilayah hukum Polda Metro Jaya. 
@@ -58,8 +70,14 @@
 "Langkah terakhir penegakan hukum itu. Kita sebenarnya tidak berharap juga, kita lebih berharap tidak ada kejahatan, dibandingkan kita harus menangkap pelaku kejahatan, lebih baik kan tidak ada kejahatan," ucap Zulpan.</t>
   </si>
   <si>
+    <t>VIDEO: Aksi Kejahatan Terekam CCTV</t>
+  </si>
+  <si>
     <t>Dua remaja di Bekasi Jawa Barat, terekam kamera saat mencuri kursi tunggu berukuran panjang di salah satu gudang perusahaan ekspedisi . Aksi nekat keduanya menjadi viral di aplikasi pesan instan. 
 Aksi pelaku begal di sebuah warung Kopi Jalan Letdanasir, Kecamatan Gunung Putri Kabupaten Bogor Jawa Barat, terekam kamera pemantau, hingga videonya menjadi viral di media sosial . Sambil mengacungkan celurit, pelaku merampas uang 50 ribu rupiah milik pelanggan, dan kabur bersama temannya,</t>
+  </si>
+  <si>
+    <t>3 Cara Terhindar dari Kejahatan Modus Hipnotis</t>
   </si>
   <si>
     <t>Hipnotis kerap dijadikan salah satu modus kejahatan seperti penipuan. Terdapat sejumlah cara yang bisa dilakukan agar terhindar dari kejahatan bermodus hipnotis. 
@@ -78,7 +96,13 @@
 Itulah sejumlah cara yang bisa dilakukan agar terhindari dari modus kejahatan hipnotis.</t>
   </si>
   <si>
+    <t>VIDEO: Langkah Antisipasi Kejahatan Di Transportasi Daring</t>
+  </si>
+  <si>
     <t>Pemerkosaan yang dilakukan oleh pengemudi taksi daring beberapa waktu lalu, menimbulkan rasa khawatir, terutama di kalangan wanita. Apalagi, saat ini transportasi daring menjadi andalan masyarakat. Untuk mencegah terjadinya kejahatan di taksi daring, konsumen patut melakukan langkah antisipasi. Berikut ulasannya.</t>
+  </si>
+  <si>
+    <t>Satgas Investasi Tegaskan Pinjol Ilegal adalah Kejahatan</t>
   </si>
   <si>
     <t>Ketua Satgas Waspada Investasi Tongam Lumban Tobing menyebut pinjaman online (pinjol) sebagai tindak kejahatan. Ia mencontohkan oknum pinjol ilegal yang melakukan penipuan dan pemerasan terhadap pelanggannya. 
@@ -94,7 +118,13 @@
 [Gambas:Video CNN]</t>
   </si>
   <si>
+    <t>VIDEO: Empat Kejahatan Yang Marak Selama Ramadan</t>
+  </si>
+  <si>
     <t>Empat kali beraksi mencuri sepeda motor milik jamaah Mesjid di Binjai, kecamatan Medan Denai, Sumatera utara, tiga anggota komplotan spesialis curanmor akhirnya ditangkap polisi.</t>
+  </si>
+  <si>
+    <t>Kriminolog: Tak Ada Korelasi Minuman Alkohol dengan Kejahatan</t>
   </si>
   <si>
     <t>Konsumsi minuman beralkohol dinilai kriminolog tak terkait langsung dengan pelanggaran pidana atau kejahatan. Sebuah kejahatan menurut kriminolog meski terkait dengan konsumsi minuman keras kerap disertai pemicu lain. 
@@ -120,6 +150,9 @@
 "Kalau boleh kami berikan gambaran, memang dalam beberapa kasus tindak pidana ada hal-hal yang memang dilatarbelakangi karena alkohol. Selama tiga tahun terakhir, mulai 2018 sampai 2020 sebanyak 223 kasus," kata Awi.</t>
   </si>
   <si>
+    <t>Polisi Cengkareng Ringkus Geng Motor Maju Kena Mundur Kena</t>
+  </si>
+  <si>
     <t>Polsek Cengkareng, Jakarta Barat meringkus 14 pelaku begal yang merangkap geng motor bernama "Make Muke" (Maju Kena Mundur Kena). 
 "Mereka bentuk geng motor bernama Make Muke ini sudah dua bulan. Bahkan, kelompok ini mau buat cabang geng motor dengan nama Make Muke 410 dan 411," ujar Kapolsek Cengkareng Kompol Khoiri di Jakarta, Rabu (5/8) seperti dikutip dari Antara. 
 Peringkusan belasan anggota geng motor itu sendiri berawal dari upaya pembegalan sepeda motor oleh empat pelaku. Empat pelaku berinisial IW, DI, JI, dan FI ditangkap di Jalan Kapuk Raya, Cengkareng, Jakarta Barat, Rabu. 
@@ -138,7 +171,13 @@
 Para pelaku kini dikenakan ancaman Pasal 365 KUHP tentang pencurian dengan kekerasan. Mereka terancam hukuman kurungan penjara selama tujuh tahun penjara.</t>
   </si>
   <si>
+    <t>VIDEO: Penemuan Kuburan Massal di Libia</t>
+  </si>
+  <si>
     <t>Tim Gabungan Pemerintah Libia dengan PBB bekerja sama dengan tim medis untuk penggalian kuburan massal setelah pada Minggu lalu menerima laporan adanya kejahatan kemanusiaan.</t>
+  </si>
+  <si>
+    <t>Polri Sebut Kriminalitas Naik 38,45 Persen Jelang New Normal</t>
   </si>
   <si>
     <t>Polri mencatat kenaikan angka kriminalitas sebesar 38,45 persen pada pekan ke-23 dan ke-24 di 2020 atau awal periode adaptasi new normal pada Juni. 
@@ -146,6 +185,9 @@
 "Atau mengalami kenaikan sebanyak 1.632 kasus," kata Karo Penmas Divisi Humas Polri Brigjen Awi Setiyono kepada wartawan, Selasa (16/6). 
 Pada periode ini, Polri mencatat ada lima kasus besar yang termasuk dalam jenis kejahatan konvensional. Pertama, pencurian dengan pemberatan meningkat sebanyak 282 kasus atau 68,61 persen.Kedua, kasus penggelapan naik sebanyak 421 kasus atau 42,71 persen. Ketiga, kasus pencurian kendaraan bermotor (curanmor) roda dua naik sebesar 98,25 persen atau sebanyak 226 kasus.Keempat, kasus narkotik naik 94 kasus atau sebesar 14,48 persen. Kelima, kasus perjudian meningkat sebanyak 104 kasus atau sebesar 100 persen. 
 Awi menuturkan kenaikan angka kriminalitas itu diduga karena masa transisi menuju tatanan kehidupan baru (new normal) saat pandemi Virus Corona."Pada masa transisi menuju new normal, aktivitas masyarakat menjadi meningkat, seiring dengan meningkatnya aktivitas masyarakat, para pelaku kejahatan juga memanfaatkan situasi tersebut untuk melakukan aksinya," tuturnya.Meski angka kriminalitas meningkat, Awi menyebut secara umum kondisi keamanan dan ketertiban masyarakat (kamtibmas) masih dalam keadaan aman dan kondusif.</t>
+  </si>
+  <si>
+    <t>Tema dan Sejarah Hari Susu Sedunia 2023</t>
   </si>
   <si>
     <t>Hari Susu Sedunia atau World Milk Day diperingati pada tanggal 1 Juni setiap tahunnya. Peringatan ini bertujuan untuk terus memperkenalkan manfaat dari produk susu ke seluruh dunia. 
@@ -167,7 +209,13 @@
 Anda yang tidak bergerak di industri susu bisa membantu sektor tetap bangkit dengan mengonsumsi susu dan produk olahannya. Selain ikut berkontribusi menciptakan lingkungan yang lebih baik, Anda juga bisa mendapatkan banyak manfaat dari susu.</t>
   </si>
   <si>
+    <t>VIDEO: Pelaku Pencopetan Saat Kirab Timnas diamankan Polisi</t>
+  </si>
+  <si>
     <t>Seorang pria ditangkap petugas saat kedapatan mencuri ponsel milik salah seorang warga yang tengah menyambut arak arakan kemenangan pemain timnas U-22 di Bundaran Hotel Indonesia, Menteng, Jakarta Pusat, Jumat pagi.</t>
+  </si>
+  <si>
+    <t>Dipanggil Tanpa Gelar, Dokter Aniaya Pelayan Karen's Dinner Bali</t>
   </si>
   <si>
     <t>Pegawai restoran Karen's Dinner di Badung, Bali jadi korban kekerasan pelanggan yang diduga kesal lantaran tak dipanggil dengan gelar dokter miliknya. 
@@ -183,7 +231,13 @@
 "Manajemen Karen's Diner Bali turut prihatin akan kejadian yang menimpa staff kami, dan akan mendampingi korban untuk proses lebih lanjut sesuai hukum yang berlaku," mengutip akun Instagram Karen's Dinner Bali.</t>
   </si>
   <si>
+    <t>VIDEO: Pasutri WNA Curi Uang Pedagang Telur, Uang Tunai 3 Juta Kandas</t>
+  </si>
+  <si>
     <t>Dua warga asing yang diduga pasangan suami-istri, mencuri pedagang telur di kawasan Penggilingan Cakung Jakarta Timur, Senin siang. Modus pelaku mengalihkan perhatian korban, dengan berpura pura menukarkan uang. Uang hasil penjualan telur senilai 3 juta rupiah, raib dicuri kedua pelaku.</t>
+  </si>
+  <si>
+    <t>Warga Nigeria Jadi Tersangka Penganiayaan 2 Ibu di Kelapa Gading</t>
   </si>
   <si>
     <t>Warga Nigeria berinisial AN (32) ditetapkan sebagai tersangka atas kasus penganiayaan dua ibu di sebuah apartemen daerah Kelapa Gading, Jakarta Utara, Jumat (5/5). 
@@ -200,6 +254,9 @@
 "Kami sedang upayakan untuk segera dilakukan pemeriksaan secara psikologi atau kejiwaan," ujarnya.</t>
   </si>
   <si>
+    <t>Mantan Pemain PSM Ditangkap Polisi Usai Aniaya Sekuriti Karaoke</t>
+  </si>
+  <si>
     <t>Mantan pemain PSM Makasar Achmad Hisyam Tolle ditangkap polisi setelah menusuk petugas keamanan sebuah karaoke di Kota Makassar, Sabtu (6/5). 
 Aksi penikaman itu terjadi di sebuah rumah bernyanyi di sekitar kawasan Jalan Perintis Kemerdekaan, Kecamatan Biringkanaya, sekitar pukul 05.30 WITA atau 04.30 WIB. 
 "Iya (Achamd Hisyam Tolle) terlibat penganiayaan tadi subuh berulah, di situ di karaoke Perintis," ujar Kanit Reskrim Polsek Biringkanaya, Iptu Sangkala dikutip dari detik.com. 
@@ -214,6 +271,9 @@
 [Gambas:Video CNN]</t>
   </si>
   <si>
+    <t>Dua Warga Tangerang Ditangkap karena Curi Kambing dengan Racun</t>
+  </si>
+  <si>
     <t>Dua pria asal Desa Kemiri, Kabupaten Tangerang berinisial AJ (22) dan DS (20) ditangkap karena melakukan aksi pencurian dua ekor kambing di Kampung Jenggot pada Kamis (20/4). 
 Aksi pencurian ini dilakukan oleh keduanya sekitar pukul 16.30 WIB. Aksi keduanya ini ternyata diketahui oleh warga sekitar. 
 "Melakukan pencurian kambing dengan cara diracun dan setelah kambing tersebut mati lalu tersangka membawa kambing yang telah diracun itu menggunakan sepeda motor bersama dengan rekannya," kata Kapolsek Kronjo Iptu Dedi Ruswandi dalam keterangannya, Jumat (21/4). 
@@ -224,6 +284,9 @@
 Setelah diamankan, kedua pelaku langsung dibawa ke Polsek Kronjo. Selain itu, pemilik kambing juga langsung membuat laporan resmi atas aksi pencurian yang dialaminya. 
 "Akibat kejadian tersebut pelapor mengalami kerugian sekitar empat juta rupiah," ujar Dedi. 
 Lebih lanjut, Dedi menyampaikan saat ini pihaknya masih terus melakukan proses penyelidikan. Kedua pelaku telah ditetapkan sebagai tersangka dan ditahan di Polsek Kronjo.</t>
+  </si>
+  <si>
+    <t>Polisi Beber Cara Kerja Penipu Modus QRIS Palsu di Kotak Amal Masjid</t>
   </si>
   <si>
     <t>Polisi membeberkan cara Mohammad Iman Mahlil, tersangka penipuan, membuat barcode QRIS palsu yang kemudian ditempel pada kotak amal masjid, termasuk di Masjid Istiqlal. 
@@ -239,6 +302,9 @@
 Ia dijerat Pjasal 28 ayat 1 Jo Pasal 45 a ayat 1 dan atau Pasal 35 ayat Jo 51 a ayat 1 UU Nomor 19 Tahun 2016 tentang ITE dan atau Pasal 80 dan atau Pasal 83 UU Nomor 3 Tahun 2011 tentang Transfer Dana dan atau Pasal 378 KUHP dengan ancaman penjara di atas lima tahun. 
 Dari hasil penyelidikan, MIML disebut telah membuat barcode QRIS itu sejak 23 Maret. Kemudian, ia mulai menempelkannya ke sejumlah kotak amal pada 1 April. 
 Beberapa masjid lokasi penipuan MIML adalah Masjid Istiqlal, Masjid Agung Sunda Kelapa, Masjid Cut Meutia Menteng. Tak hanya masjid, MIML juga menempelkan stiker barcode QRIS itu di musala mal, yakni di Pondok Indah Mal dan Grand Indonesia.</t>
+  </si>
+  <si>
+    <t>Polisi Selidiki Dugaan Barcode QRIS Palsu di Masjid Bintaro</t>
   </si>
   <si>
     <t>Aksi penipuan dengan modus mengganti barcode QR Indonesian Standard (QRIS) diduga tak hanya terjadi di masjid wilayah Jakarta. Hal itu dikabarkan juga terjadi di kawasan Bintaro, Tangerang Selatan. 
@@ -260,6 +326,9 @@
 "Ada petugas kami yang curiga. Kok ada tulisan restorasi masjid. Ada sekitar 50," ucap Abu.</t>
   </si>
   <si>
+    <t>Polisi Selidiki 50 Barcode QRIS Palsu di Kotak Amal Masjid Istiqlal</t>
+  </si>
+  <si>
     <t>Polisi menyelidiki aksi penipuan dengan modus mengganti barcode QR Indonesian Standard (QRIS) di Masjid Istiqlal, Jakarta Pusat. Sekitar 50 stiker barcode QRIS palsu ditemukan di masjid tersebut. 
 "Iya lagi didalami. Ini abis tarawih tim akan turun ke Istiqlal," kata Kapolres Metro Jakarta Pusat Kombes Komarudin saat dihubungi, Senin (10/4). 
 Komarudin menyebut sejauh ini pihaknya belum menerima laporan dari pihak pengurus Masjid Istiqlal terkait temuan barcode QRIS palsu itu. 
@@ -274,10 +343,19 @@
 "Sementara kami duga masih satu orang yag sama, mudah-mudahan dalam waktu dekat bisa kami identifikasi," ucap Kasat Reskrim Polres Metro Jakarta Selatan Kompol Irwandhy.</t>
   </si>
   <si>
+    <t>VIDEO: Pria Tua Cabuli Anak Tiri Hingga Hamil. Melahirkan, Bayi Dibunu</t>
+  </si>
+  <si>
     <t>Seorang berusia 67 tahun di Bekasi, Jawa Barat, mencabuli anak tirinya sendiri hingga hamil dan melahirkan. Tak hanya itu, ia juga diduga membunuh bayi yang baru dilahirkan anak tirinya.</t>
   </si>
   <si>
+    <t>VIDEO: Polisi Giring 2 Jambret, Warga Nyanyi Happy Birthday To You</t>
+  </si>
+  <si>
     <t>Kejadian unik terjadi saat dua penjambret yang tertangkap di Desa Limus Nunggal, Kabupaten Bogor, dinaikan polisi ke atas mobil patroli menuju Polsek Cileungsi, Senin malam. Warga yang mengepung kedua penjambret dengan kompak menyanyikan lagu Happy Birthday To You untuk kedua penjambret tersebut.</t>
+  </si>
+  <si>
+    <t>Mayat Bayi Ditemukan di Tempat Sampah Jembatan Sentani Jayapura</t>
   </si>
   <si>
     <t>Mayat bayi ditemukan di tempat sampah samping jembatan Komba Sentani, Kabupaten Jayapura pada Rabu (22/3) petang pukul 17.30 WIT. 
@@ -290,10 +368,19 @@
 "Setelah dilakukan olah TKP, tim Inafis Polres Jayapura membawa mayat bayi tersebut ke Rumah Sakit Bhayangkara untuk dilakukan pemeriksaan dan pengembangan lebih lanjut." ujarnya.</t>
   </si>
   <si>
+    <t>VIDEO: Pelajar SMP Dibunuh Pacar Dan Dikubur Di Dapur Rumah Warga</t>
+  </si>
+  <si>
     <t>Seorang pelajar SMP berusia 14 tahun, tewas dibunuh oleh pacarnya. Setelah dibunuh, jasadnya dikubur di dapur rumah warga. Pelaku nekat berbuat keji, karena takut sang pacar hamil.</t>
   </si>
   <si>
+    <t>VIDEO: Perampokan Bank Di Lampung, Tiga Pegawai Kena Luka Tembak</t>
+  </si>
+  <si>
     <t>Seorang pria bersenjata api merampok bank di Bandar Lampung. Perampok melukai tiga orang satuan pengamanan dan karyawan bank. Karyawan berhasil menangkap perampok tersebut, sebelum berhasil melarikan diri.</t>
+  </si>
+  <si>
+    <t>Detik-Detik Aksi Perampokan Bank di Lampung</t>
   </si>
   <si>
     <t>Aksi perampokan oleh pelaku bersenjata api terjadi di Bank Arta Kedaton yang berlokasi di Jalan Laksmana Malahayati, Kota Bandar Lampung, Jumat (17/3) sekitar pukul 09.00 WIB. 
@@ -310,7 +397,13 @@
 "Kemudian senjata air softgun yang dipegang pelaku berhasil direbut dengan dibantu nasabah, karyawan dan warga sekitar pelaku berhasil diamankan," lanjutnya.</t>
   </si>
   <si>
+    <t>VIDEO: Suami Ditangkap Polisi Karena Mencuri, Istri Histeris</t>
+  </si>
+  <si>
     <t>Salah satu istri pelaku pencurian histeris saat mengetahui suaminya ditangkap anggota Kepolisian Sektor Tampan, Kota Pekanbaru, Riau.Bersama tiga orang rekannya tersangka mencuri dengan cara mencongkel jendela rumah.</t>
+  </si>
+  <si>
+    <t>3 PSK Asal Rusia Dideportasi dari Bali</t>
   </si>
   <si>
     <t>Kantor Wilayah Kementerian Hukum dan Hak Asasi Manusia Bali mendeportasi tiga warga negara asal Rusia yang bekerja sebagai pekerja seks komersial (PSK). 
@@ -326,8 +419,17 @@
 "Kami mengajak masyarakat untuk turut berpartisipasi menjaga keamanan tempat tinggalnya dengan melaporkan jika ada kecurigaan terhadap aktivitas WNA," kata Silmy.</t>
   </si>
   <si>
+    <t>VIDEO: Maraknya Perilaku Perundungan Berujung Kriminal</t>
+  </si>
+  <si>
     <t>Kasus bullying yang dilakukan anak di bawah umur semakin mengkhawatirkan. Tidak hanya secara verbal,tindakan perundungan bahkan mengarah pada tindakan kriminal dan ironisnya terjadi di lingkungan sekolah. 
 Untuk membahas perilaku perundungan pada anak di bawah umur,sudah bergabung bersama kami kriminolog universitas Budi Luhur, Lucky Nurhadiyanto.</t>
+  </si>
+  <si>
+    <t>VIDEO: Pemilik ke Masjid, Delman Berikut Kudanya Digondol Maling</t>
+  </si>
+  <si>
+    <t>Kasus pencurian unik terjadi di Semarang, Jawa Tengah.Satu unit delman beserta kudanya hilang digasak dua pelaku saat ditinggal pemiliknya beribadah di masjid.Menurut catatan polisi, kasus pencurian delman dan kudanya baru pertama terjadi di wilayah Semarang Timur.</t>
   </si>
 </sst>
 </file>
@@ -335,10 +437,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -357,67 +459,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,12 +573,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -485,23 +601,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,13 +618,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,169 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,13 +842,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,26 +890,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,157 +916,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,182 +1423,284 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
